--- a/data/od_juls/06_11_2024/AA_proza_svk_do_1960_kontrola2.xlsx
+++ b/data/od_juls/06_11_2024/AA_proza_svk_do_1960_kontrola2.xlsx
@@ -2677,8 +2677,8 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-41B];[RED]\-#,##0.00\ [$€-41B]"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="6">
@@ -2784,7 +2784,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2833,15 +2833,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2937,11 +2933,11 @@
   </sheetPr>
   <dimension ref="A1:T1120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A109" activeCellId="0" sqref="A109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="23.2"/>
@@ -3300,7 +3296,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="b">
+      <c r="A7" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3522,7 +3518,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="b">
+      <c r="A11" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3681,7 +3677,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="b">
+      <c r="A14" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3738,7 +3734,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="b">
+      <c r="A15" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3849,7 +3845,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="b">
+      <c r="A17" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3906,7 +3902,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="b">
+      <c r="A18" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4014,7 +4010,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="b">
+      <c r="A20" s="12" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4068,7 +4064,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="b">
+      <c r="A21" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4125,7 +4121,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="b">
+      <c r="A22" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4182,7 +4178,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="b">
+      <c r="A23" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4239,7 +4235,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="b">
+      <c r="A24" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4296,7 +4292,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="b">
+      <c r="A25" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4353,7 +4349,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="b">
+      <c r="A26" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4410,7 +4406,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="b">
+      <c r="A27" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4467,7 +4463,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="b">
+      <c r="A28" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4524,7 +4520,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="b">
+      <c r="A29" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4578,7 +4574,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="b">
+      <c r="A30" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4740,7 +4736,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="b">
+      <c r="A33" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4797,7 +4793,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="b">
+      <c r="A34" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4908,7 +4904,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="b">
+      <c r="A36" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4962,7 +4958,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="b">
+      <c r="A37" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5019,7 +5015,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="b">
+      <c r="A38" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5130,7 +5126,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="b">
+      <c r="A40" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5187,7 +5183,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="b">
+      <c r="A41" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5244,7 +5240,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="b">
+      <c r="A42" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5301,7 +5297,9 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5"/>
+      <c r="A43" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="B43" s="0" t="s">
         <v>220</v>
       </c>
@@ -5355,7 +5353,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="b">
+      <c r="A44" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5412,7 +5410,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="b">
+      <c r="A45" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -5468,7 +5467,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="b">
+      <c r="A46" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B46" s="0" t="s">
@@ -5527,7 +5527,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="b">
+      <c r="A47" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -5580,7 +5581,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="b">
+      <c r="A48" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -5636,7 +5638,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="b">
+      <c r="A49" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -5692,7 +5695,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="b">
+      <c r="A50" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B50" s="0" t="s">
@@ -5748,7 +5752,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="b">
+      <c r="A51" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B51" s="0" t="s">
@@ -5804,7 +5809,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="b">
+      <c r="A52" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B52" s="0" t="s">
@@ -5965,7 +5971,8 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="b">
+      <c r="A55" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B55" s="0" t="s">
@@ -6018,7 +6025,8 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="b">
+      <c r="A56" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B56" s="0" t="s">
@@ -6074,7 +6082,8 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="b">
+      <c r="A57" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B57" s="0" t="s">
@@ -6130,7 +6139,8 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="b">
+      <c r="A58" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B58" s="0" t="s">
@@ -6186,7 +6196,8 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="b">
+      <c r="A59" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B59" s="0" t="s">
@@ -6239,7 +6250,8 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="b">
+      <c r="A60" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B60" s="0" t="s">
@@ -6292,7 +6304,8 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="b">
+      <c r="A61" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B61" s="0" t="s">
@@ -6345,7 +6358,8 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="b">
+      <c r="A62" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B62" s="0" t="s">
@@ -6401,7 +6415,8 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="b">
+      <c r="A63" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B63" s="0" t="s">
@@ -6457,7 +6472,8 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="b">
+      <c r="A64" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B64" s="0" t="s">
@@ -6510,7 +6526,8 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="b">
+      <c r="A65" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B65" s="0" t="s">
@@ -6563,7 +6580,8 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="b">
+      <c r="A66" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -6619,7 +6637,8 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="b">
+      <c r="A67" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B67" s="0" t="s">
@@ -6672,7 +6691,8 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="b">
+      <c r="A68" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -6725,7 +6745,8 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="b">
+      <c r="A69" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B69" s="0" t="s">
@@ -6781,7 +6802,8 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="b">
+      <c r="A70" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B70" s="0" t="s">
@@ -6834,7 +6856,8 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="b">
+      <c r="A71" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B71" s="0" t="s">
@@ -6890,7 +6913,8 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="b">
+      <c r="A72" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B72" s="0" t="s">
@@ -6946,7 +6970,8 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="b">
+      <c r="A73" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B73" s="0" t="s">
@@ -6999,7 +7024,8 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="b">
+      <c r="A74" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B74" s="0" t="s">
@@ -7052,7 +7078,8 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="b">
+      <c r="A75" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B75" s="0" t="s">
@@ -7108,7 +7135,8 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="b">
+      <c r="A76" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B76" s="0" t="s">
@@ -7164,7 +7192,8 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="b">
+      <c r="A77" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B77" s="0" t="s">
@@ -7220,7 +7249,8 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="b">
+      <c r="A78" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B78" s="0" t="s">
@@ -7276,7 +7306,8 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="b">
+      <c r="A79" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B79" s="0" t="s">
@@ -7332,7 +7363,8 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="b">
+      <c r="A80" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B80" s="0" t="s">
@@ -7388,7 +7420,8 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="b">
+      <c r="A81" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B81" s="0" t="s">
@@ -7441,7 +7474,8 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="b">
+      <c r="A82" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B82" s="0" t="s">
@@ -7494,7 +7528,8 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="b">
+      <c r="A83" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B83" s="0" t="s">
@@ -7547,7 +7582,8 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="b">
+      <c r="A84" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B84" s="0" t="s">
@@ -7603,7 +7639,8 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="b">
+      <c r="A85" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B85" s="0" t="s">
@@ -7656,7 +7693,8 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="b">
+      <c r="A86" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B86" s="0" t="s">
@@ -7712,7 +7750,8 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="b">
+      <c r="A87" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B87" s="0" t="s">
@@ -7768,7 +7807,8 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="b">
+      <c r="A88" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B88" s="0" t="s">
@@ -7822,7 +7862,8 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="b">
+      <c r="A89" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B89" s="0" t="s">
@@ -7878,7 +7919,8 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="b">
+      <c r="A90" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B90" s="0" t="s">
@@ -7934,7 +7976,8 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="b">
+      <c r="A91" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B91" s="0" t="s">
@@ -7990,7 +8033,8 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="b">
+      <c r="A92" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B92" s="0" t="s">
@@ -8046,7 +8090,8 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="b">
+      <c r="A93" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B93" s="0" t="s">
@@ -8099,7 +8144,8 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="b">
+      <c r="A94" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B94" s="0" t="s">
@@ -8152,7 +8198,8 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="b">
+      <c r="A95" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B95" s="0" t="s">
@@ -8205,7 +8252,8 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="b">
+      <c r="A96" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B96" s="0" t="s">
@@ -8261,7 +8309,8 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="b">
+      <c r="A97" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B97" s="0" t="s">
@@ -8317,7 +8366,8 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="b">
+      <c r="A98" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B98" s="0" t="s">
@@ -8376,7 +8426,8 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="b">
+      <c r="A99" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B99" s="0" t="s">
@@ -8429,7 +8480,8 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="b">
+      <c r="A100" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B100" s="0" t="s">
@@ -8485,7 +8537,8 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="b">
+      <c r="A101" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B101" s="0" t="s">
@@ -8541,7 +8594,8 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="b">
+      <c r="A102" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B102" s="0" t="s">
@@ -8597,7 +8651,8 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="b">
+      <c r="A103" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B103" s="0" t="s">
@@ -8653,7 +8708,8 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="b">
+      <c r="A104" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B104" s="0" t="s">
@@ -8706,7 +8762,8 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="b">
+      <c r="A105" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B105" s="0" t="s">
@@ -8762,7 +8819,8 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="b">
+      <c r="A106" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B106" s="0" t="s">
@@ -8815,7 +8873,8 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="b">
+      <c r="A107" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B107" s="0" t="s">
@@ -8871,7 +8930,8 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="b">
+      <c r="A108" s="12" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B108" s="0" t="s">
@@ -8927,7 +8987,9 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5"/>
+      <c r="A109" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="B109" s="0" t="s">
         <v>532</v>
       </c>
@@ -8981,7 +9043,9 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5"/>
+      <c r="A110" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="B110" s="0" t="s">
         <v>537</v>
       </c>
@@ -9035,7 +9099,9 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5"/>
+      <c r="A111" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="B111" s="0" t="s">
         <v>542</v>
       </c>
@@ -9089,7 +9155,9 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5"/>
+      <c r="A112" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="B112" s="0" t="s">
         <v>547</v>
       </c>
@@ -9143,7 +9211,9 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="5"/>
+      <c r="A113" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="B113" s="0" t="s">
         <v>551</v>
       </c>
@@ -9197,7 +9267,9 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5"/>
+      <c r="A114" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="B114" s="0" t="s">
         <v>555</v>
       </c>
@@ -9251,7 +9323,9 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="5"/>
+      <c r="A115" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="B115" s="0" t="s">
         <v>559</v>
       </c>
@@ -9305,7 +9379,9 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5"/>
+      <c r="A116" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="B116" s="0" t="s">
         <v>563</v>
       </c>
@@ -9362,7 +9438,9 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="5"/>
+      <c r="A117" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="B117" s="0" t="s">
         <v>569</v>
       </c>
@@ -9470,7 +9548,9 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="5"/>
+      <c r="A119" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="B119" s="0" t="s">
         <v>580</v>
       </c>
@@ -9521,7 +9601,9 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="5"/>
+      <c r="A120" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="B120" s="0" t="s">
         <v>585</v>
       </c>
@@ -9751,12 +9833,12 @@
       <c r="O156" s="9"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I157" s="15"/>
-      <c r="J157" s="15"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="14"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I158" s="15"/>
-      <c r="J158" s="15"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="14"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I159" s="13"/>
@@ -14540,7 +14622,7 @@
       <selection pane="bottomLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.36"/>
@@ -14614,7 +14696,7 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="b">
+      <c r="A2" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14674,7 +14756,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="b">
+      <c r="A3" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14731,7 +14813,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="b">
+      <c r="A4" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14853,7 +14935,7 @@
       <c r="D6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F6" s="0" t="s">
@@ -14906,7 +14988,7 @@
       <c r="D7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F7" s="0" t="s">
@@ -14959,7 +15041,7 @@
       <c r="D8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F8" s="0" t="s">
@@ -15015,7 +15097,7 @@
       <c r="D9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F9" s="0" t="s">
@@ -15059,7 +15141,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="b">
+      <c r="A10" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15116,7 +15198,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="b">
+      <c r="A11" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15388,7 +15470,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="b">
+      <c r="A16" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15442,7 +15524,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="b">
+      <c r="A17" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15499,7 +15581,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="b">
+      <c r="A18" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15556,7 +15638,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="b">
+      <c r="A19" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15613,7 +15695,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="b">
+      <c r="A20" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15667,7 +15749,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="b">
+      <c r="A21" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15721,7 +15803,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="b">
+      <c r="A22" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15778,7 +15860,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="b">
+      <c r="A23" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16156,7 +16238,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="b">
+      <c r="A30" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16322,7 +16404,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="b">
+      <c r="A33" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16379,7 +16461,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="b">
+      <c r="A34" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16436,7 +16518,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="b">
+      <c r="A35" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16493,7 +16575,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="b">
+      <c r="A36" s="12" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16547,7 +16629,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="b">
+      <c r="A37" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16601,7 +16683,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="b">
+      <c r="A38" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16658,7 +16740,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="b">
+      <c r="A39" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16715,7 +16797,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="b">
+      <c r="A40" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16878,7 +16960,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="b">
+      <c r="A43" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16935,7 +17017,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="b">
+      <c r="A44" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16992,7 +17074,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="b">
+      <c r="A45" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17049,7 +17131,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="b">
+      <c r="A46" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17115,7 +17197,7 @@
       <c r="D47" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>682</v>
       </c>
       <c r="F47" s="0" t="s">
@@ -17159,7 +17241,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="b">
+      <c r="A48" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17216,7 +17298,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="b">
+      <c r="A49" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17270,7 +17352,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="b">
+      <c r="A50" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17327,7 +17409,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="b">
+      <c r="A51" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17437,7 +17519,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="b">
+      <c r="A53" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17503,7 +17585,7 @@
       <c r="D54" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F54" s="0" t="s">
@@ -17659,7 +17741,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="b">
+      <c r="A57" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17716,7 +17798,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="b">
+      <c r="A58" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17773,7 +17855,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="b">
+      <c r="A59" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17830,7 +17912,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="b">
+      <c r="A60" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17884,7 +17966,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="b">
+      <c r="A61" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17944,7 +18026,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="b">
+      <c r="A62" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18001,7 +18083,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="b">
+      <c r="A63" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18058,7 +18140,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="b">
+      <c r="A64" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18115,7 +18197,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="b">
+      <c r="A65" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18172,7 +18254,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="b">
+      <c r="A66" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18229,7 +18311,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="b">
+      <c r="A67" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18286,7 +18368,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="b">
+      <c r="A68" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18343,7 +18425,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="b">
+      <c r="A69" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18456,7 +18538,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="b">
+      <c r="A71" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18513,7 +18595,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="b">
+      <c r="A72" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18573,7 +18655,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="b">
+      <c r="A73" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18683,7 +18765,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="b">
+      <c r="A75" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18740,7 +18822,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="b">
+      <c r="A76" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18797,7 +18879,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="b">
+      <c r="A77" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18854,7 +18936,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="b">
+      <c r="A78" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18911,7 +18993,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="b">
+      <c r="A79" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18965,7 +19047,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="b">
+      <c r="A80" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19022,7 +19104,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14" t="b">
+      <c r="A81" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19079,7 +19161,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="b">
+      <c r="A82" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19133,7 +19215,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14" t="b">
+      <c r="A83" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19190,7 +19272,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14" t="b">
+      <c r="A84" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19247,7 +19329,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="b">
+      <c r="A85" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19304,7 +19386,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="14" t="b">
+      <c r="A86" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19358,7 +19440,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="b">
+      <c r="A87" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19412,7 +19494,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="b">
+      <c r="A88" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19466,7 +19548,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14" t="b">
+      <c r="A89" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19523,7 +19605,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="b">
+      <c r="A90" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19580,7 +19662,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14" t="b">
+      <c r="A91" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19634,7 +19716,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="b">
+      <c r="A92" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19688,7 +19770,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="14" t="b">
+      <c r="A93" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19745,7 +19827,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="b">
+      <c r="A94" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19799,7 +19881,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="b">
+      <c r="A95" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19853,7 +19935,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14" t="b">
+      <c r="A96" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19910,7 +19992,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="b">
+      <c r="A97" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19964,7 +20046,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="b">
+      <c r="A98" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20021,7 +20103,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14" t="b">
+      <c r="A99" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20078,7 +20160,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="14" t="b">
+      <c r="A100" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20132,7 +20214,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="14" t="b">
+      <c r="A101" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20348,7 +20430,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="14" t="b">
+      <c r="A105" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20564,7 +20646,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="14" t="b">
+      <c r="A109" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20621,7 +20703,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="14" t="b">
+      <c r="A110" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20731,7 +20813,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="14" t="b">
+      <c r="A112" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20788,7 +20870,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="14" t="b">
+      <c r="A113" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20845,7 +20927,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="14" t="b">
+      <c r="A114" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20902,7 +20984,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="14" t="b">
+      <c r="A115" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20965,7 +21047,7 @@
       <c r="D116" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F116" s="0" t="s">
@@ -21018,7 +21100,7 @@
       <c r="D117" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F117" s="0" t="s">
@@ -21071,7 +21153,7 @@
       <c r="D118" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F118" s="0" t="s">
@@ -21124,7 +21206,7 @@
       <c r="D119" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F119" s="0" t="s">
@@ -21177,7 +21259,7 @@
       <c r="D120" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F120" s="0" t="s">
@@ -21230,7 +21312,7 @@
       <c r="D121" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F121" s="0" t="s">
@@ -21283,7 +21365,7 @@
       <c r="D122" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F122" s="0" t="s">
@@ -21336,7 +21418,7 @@
       <c r="D123" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F123" s="0" t="s">
@@ -21389,7 +21471,7 @@
       <c r="D124" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F124" s="0" t="s">
@@ -21433,7 +21515,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="14" t="b">
+      <c r="A125" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21487,7 +21569,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="14" t="b">
+      <c r="A126" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21594,7 +21676,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="14" t="b">
+      <c r="A128" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21651,7 +21733,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="14" t="b">
+      <c r="A129" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21758,7 +21840,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="14" t="b">
+      <c r="A131" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21868,7 +21950,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="14" t="b">
+      <c r="A133" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21925,7 +22007,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="14" t="b">
+      <c r="A134" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21980,7 +22062,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="14" t="b">
+      <c r="A135" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22046,7 +22128,7 @@
       <c r="D136" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F136" s="0" t="s">
@@ -22099,7 +22181,7 @@
       <c r="D137" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F137" s="0" t="s">
@@ -22152,7 +22234,7 @@
       <c r="D138" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="15" t="s">
         <v>598</v>
       </c>
       <c r="F138" s="0" t="s">
@@ -22205,7 +22287,7 @@
       <c r="D139" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="E139" s="16" t="s">
         <v>598</v>
       </c>
       <c r="F139" s="0" t="s">
@@ -22249,7 +22331,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="14" t="b">
+      <c r="A140" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22306,7 +22388,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="14" t="b">
+      <c r="A141" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22363,7 +22445,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="14" t="b">
+      <c r="A142" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22420,7 +22502,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="14" t="b">
+      <c r="A143" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22474,7 +22556,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="14" t="b">
+      <c r="A144" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22528,7 +22610,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="14" t="b">
+      <c r="A145" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22582,7 +22664,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="14" t="b">
+      <c r="A146" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22745,7 +22827,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="14" t="b">
+      <c r="A149" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22855,7 +22937,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="14" t="b">
+      <c r="A151" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22915,7 +22997,7 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="14" t="b">
+      <c r="A152" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23246,7 +23328,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="14" t="b">
+      <c r="A158" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23303,7 +23385,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="14" t="b">
+      <c r="A159" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23360,7 +23442,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="14" t="b">
+      <c r="A160" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23417,7 +23499,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="14" t="b">
+      <c r="A161" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23474,7 +23556,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="14" t="b">
+      <c r="A162" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23528,7 +23610,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="14" t="b">
+      <c r="A163" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23585,7 +23667,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="14" t="b">
+      <c r="A164" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23639,7 +23721,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="14" t="b">
+      <c r="A165" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23749,7 +23831,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="14" t="b">
+      <c r="A167" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23806,7 +23888,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="14" t="b">
+      <c r="A168" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23863,7 +23945,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="14" t="b">
+      <c r="A169" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23973,7 +24055,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="14" t="b">
+      <c r="A171" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24030,7 +24112,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="14" t="b">
+      <c r="A172" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24087,7 +24169,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="14" t="b">
+      <c r="A173" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24144,7 +24226,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="14" t="b">
+      <c r="A174" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24201,7 +24283,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="14" t="b">
+      <c r="A175" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24258,7 +24340,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="14" t="b">
+      <c r="A176" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24374,7 +24456,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="14" t="b">
+      <c r="A178" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24431,7 +24513,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="14" t="b">
+      <c r="A179" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24488,7 +24570,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="14" t="b">
+      <c r="A180" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24542,7 +24624,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="14" t="b">
+      <c r="A181" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24661,7 +24743,7 @@
       <c r="D183" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E183" s="16" t="s">
+      <c r="E183" s="15" t="s">
         <v>878</v>
       </c>
       <c r="F183" s="0" t="s">
@@ -24884,12 +24966,12 @@
       <c r="O219" s="9"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I220" s="15"/>
-      <c r="J220" s="15"/>
+      <c r="I220" s="14"/>
+      <c r="J220" s="14"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I221" s="15"/>
-      <c r="J221" s="15"/>
+      <c r="I221" s="14"/>
+      <c r="J221" s="14"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I222" s="13"/>
